--- a/spreadsheet/macrofree/azureexpressroute_sg_checklist.en.xlsx
+++ b/spreadsheet/macrofree/azureexpressroute_sg_checklist.en.xlsx
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>During the initial planning phase, you want to decide whether you want to configure an ExpressRoute circuit or an ExpressRoute Direct connection. An ExpressRoute circuit allows a private dedicated connection into Azure with the help of a connectivity provider. ExpressRoute Direct allows you to extend on-premises network directly into the Microsoft network at a peering location. You also need to identify the bandwidth requirement and the SKU type requirement for your business needs.</t>
+          <t>During the initial planning phase, you want to decide whether you want to configure an ExpressRoute circuit or an ExpressRoute Direct connection. An ExpressRoute circuit allows a private dedicated connection into Azure with the help of a connectivity provider. ExpressRoute Direct allows you to extend the on-premises network directly into the Microsoft network at a peering location. You also need to identify the bandwidth requirement and the SKU type requirement for your business needs.</t>
         </is>
       </c>
       <c r="E8" s="21" t="n"/>
@@ -1095,12 +1095,12 @@
       <c r="B9" s="21" t="n"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Physical layer diversity</t>
+          <t>Plan for geo-redundant circuits</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>For better resiliency, plan to have multiple paths between the on-premises edge and the peering locations (provider/Microsoft edge locations). This configuration can be achieved by going through different service provider or through a different location from the on-premises network.</t>
+          <t>To plan for disaster recovery, set up ExpressRoute circuits in more than one peering locations. You can create circuits in peering locations in the same metro or different metro and choose to work with different service providers for diverse paths through each circuit. For more information, see  Designing for disaster recovery and Designing for high availability.</t>
         </is>
       </c>
       <c r="E9" s="21" t="n"/>
@@ -1116,7 +1116,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>4f51aa2e-2a6a-4ea1-9c8a-f9ee668052af</t>
+          <t>14b83764-dab1-4741-85ee-7b3cf55cde49</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1129,12 +1129,12 @@
       <c r="B10" s="21" t="n"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Plan for geo-redundant circuits</t>
+          <t>Plan for Active-Active connectivity</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>To plan for disaster recovery, set up ExpressRoute circuits in more than one peering locations. You can create circuits in peering locations in the same metro or different metro and choose to work with different service providers for diverse paths through each circuit. For more information, see Designing for disaster recovery and Designing for high availability.</t>
+          <t>ExpressRoute dedicated circuits guarantee `99.95%` availability when an active-active connectivity is configured between on-premises and Azure. This mode provides higher availability of your Expressroute connection. It's also recommended to configure BFD for faster failover if there's a link failure on a connection.</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1150,7 +1150,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>14b83764-dab1-4741-85ee-7b3cf55cde49</t>
+          <t>f28fea39-a9e2-45ef-a711-997456c3d42c</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1163,12 +1163,12 @@
       <c r="B11" s="21" t="n"/>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Plan for Active-Active connectivity</t>
+          <t>Planning for Virtual Network Gateways</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute dedicated circuits guarantee `99.95%` availability when an active-active connectivity is configured between on-premises and Azure. This mode provides higher availability of your Expressroute connection. It's also recommended to configure BFD for faster failover if there's a link failure on a connection.</t>
+          <t>Create availability zone aware Virtual Network Gateway for higher resiliency and plan for Virtual Network Gateways in different region for disaster recovery and high availability.</t>
         </is>
       </c>
       <c r="E11" s="21" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>f28fea39-a9e2-45ef-a711-997456c3d42c</t>
+          <t>8e29e63c-2da5-4242-8a86-c7083b231b0f</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1197,12 +1197,12 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Planning for Virtual Network Gateways</t>
+          <t>Monitor circuits and gateway health</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>Create availability zone aware Virtual Network Gateway for higher resiliency and plan for Virtual Network Gateways in different region for disaster recovery and high availability.</t>
+          <t>Set up monitoring and alerts for ExpressRoute circuits and Virtual Network Gateway health based on various metrics available.</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1218,7 +1218,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>8e29e63c-2da5-4242-8a86-c7083b231b0f</t>
+          <t>0367cde8-2954-4b20-8be0-fb2b7e50eb91</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1231,12 +1231,12 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Monitor circuits and gateway health</t>
+          <t>Enable service health</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Set up monitoring and alerts for ExpressRoute circuits and Virtual Network Gateway health based on various metrics available.</t>
+          <t>ExpressRoute uses service health to notify about planned and unplanned maintenance. Configuring service health will notify you about changes made to your ExpressRoute circuits.</t>
         </is>
       </c>
       <c r="E13" s="21" t="n"/>
@@ -1252,7 +1252,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>0367cde8-2954-4b20-8be0-fb2b7e50eb91</t>
+          <t>c7bf09c0-317f-4f7f-be8d-3d74444757c8</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1265,12 +1265,12 @@
       <c r="B14" s="21" t="n"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Enable service health</t>
+          <t>Configure Activity log to send logs to archive</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute uses service health to notify about planned and unplanned maintenance. Configuring service health will notify you about changes made to your ExpressRoute circuits.</t>
+          <t>Activity logs provide insights into operations that were performed at the subscription level for ExpressRoute resources. With Activity logs, you can determine who and when an operation was performed at the control plane. Data retention is only 90 days and required to be stored in Log Analytics, Event Hubs or a storage account for archive.</t>
         </is>
       </c>
       <c r="E14" s="21" t="n"/>
@@ -1286,7 +1286,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>c7bf09c0-317f-4f7f-be8d-3d74444757c8</t>
+          <t>b1f76928-0fc3-407e-8658-f93f2812873f</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1299,12 +1299,12 @@
       <c r="B15" s="21" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Configure Activity log to send logs to archive</t>
+          <t>Maintain inventory of administrative accounts</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>Activity logs provide insights into operations that were performed at the subscription level for ExpressRoute resources. With Activity logs, you can determine who and when an operation was performed at the control plane. Data retention is only 90 days and required to be stored in Log Analytics, Event Hubs or a storage account for archive.</t>
+          <t>Use Azure RBAC to configure roles to limit user accounts that can add, update, or delete peering configuration on an ExpressRoute circuit.</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1320,7 +1320,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>b1f76928-0fc3-407e-8658-f93f2812873f</t>
+          <t>61fced7c-71af-4061-a73a-b880e8ee4f78</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1333,12 +1333,12 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Maintain inventory of administrative accounts</t>
+          <t>Configure MD5 hash on ExpressRoute circuit</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>Use Azure RBAC to configure roles to limit user accounts that can add, update, or delete peering configuration on an ExpressRoute circuit.</t>
+          <t>During configuration of private peering or Microsoft peering, apply an MD5 hash to secure messages between the on-premises route and the MSEE routers.</t>
         </is>
       </c>
       <c r="E16" s="21" t="n"/>
@@ -1354,7 +1354,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>61fced7c-71af-4061-a73a-b880e8ee4f78</t>
+          <t>7091a086-8128-45f8-81e6-c93548433b87</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1367,12 +1367,12 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Configure MD5 hash on ExpressRoute circuit</t>
+          <t>Configure MACSec for ExpressRoute Direct resources</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>During configuration of private peering or Microsoft peering, apply an MD5 hash to secure messages between the on-premises route and the MSEE routers.</t>
+          <t>Media Access Control security is a point-to-point security at the data link layer. ExpressRoute Direct supports configuring MACSec to prevent security threats to protocols such as ARP, DHCP, LACP not normally secured on the Ethernet link. For more information on how to configure MACSec, see MACSec for ExpressRoute Direct ports.</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1388,7 +1388,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>7091a086-8128-45f8-81e6-c93548433b87</t>
+          <t>90d32454-fcb9-496d-a411-166a2fe50b6b</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1401,12 +1401,12 @@
       <c r="B18" s="21" t="n"/>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Configure MACSec for ExpressRoute Direct resources</t>
+          <t>Encrypt traffic using IPsec</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>Media Access Control security is a point-to-point security at the data link layer. ExpressRoute Direct supports configuring MACSec to prevent security threats to protocols such as ARP, DHCP, LACP not normally secured on the Ethernet link. For more information on how to configure MACSec, see MACSec for ExpressRoute Direct ports.</t>
+          <t>Configure a Site-to-site VPN tunnel over your ExpressRoute circuit to encrypt data transferring between your on-premises network and Azure virtual network. You can configure a tunnel using private peering or using Microsoft peering.</t>
         </is>
       </c>
       <c r="E18" s="21" t="n"/>
@@ -1422,7 +1422,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>90d32454-fcb9-496d-a411-166a2fe50b6b</t>
+          <t>ef702434-e1ce-4c4b-a2a6-553c1d58f881</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1435,12 +1435,12 @@
       <c r="B19" s="21" t="n"/>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Encrypt traffic using IPsec</t>
+          <t>Familiarize yourself with ExpressRoute pricing</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>Configure a Site-to-site VPN tunnel over your ExpressRoute circuit to encrypt data transferring between your on-premises network and Azure virtual network. You can configure a tunnel using private peering or using Microsoft peering.</t>
+          <t>For information about ExpressRoute pricing, see Understand pricing for Azure ExpressRoute. You can also use the Pricing calculator.Ensure that the options are adequately sized to meet the capacity demand and deliver expected performance without wasting resources.</t>
         </is>
       </c>
       <c r="E19" s="21" t="n"/>
@@ -1456,7 +1456,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>ef702434-e1ce-4c4b-a2a6-553c1d58f881</t>
+          <t>8ae8772a-7131-42f9-9d2f-ce2aa5bcdd2b</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1469,12 +1469,12 @@
       <c r="B20" s="21" t="n"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Familiarize yourself with ExpressRoute pricing</t>
+          <t>Determine SKU and bandwidth required</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>For information about ExpressRoute pricing, see Understand pricing for Azure ExpressRoute. You can also use the Pricing calculator.Ensure that the options are adequately sized to meet the capacity demand and deliver expected performance without wasting resources.</t>
+          <t>The way you're charged for your ExpressRoute usage varies between the three different SKU types. With Local SKU, you're automatically charged with an Unlimited data plan. With Standard and Premium SKU, you can select between a Metered or an Unlimited data plan. All ingress data are free of charge except when using the Global Reach add-on. It's important to understand which SKU types and data plan works best for your workload to best optimize cost and budget. For more information resizing ExpressRoute circuit, see upgrading ExpressRoute circuit bandwidth.</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -1490,7 +1490,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>8ae8772a-7131-42f9-9d2f-ce2aa5bcdd2b</t>
+          <t>18ef72cd-862c-43e8-b9ee-921fb5f079f0</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1503,12 +1503,12 @@
       <c r="B21" s="21" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Determine SKU and bandwidth required</t>
+          <t>Determine the ExpressRoute virtual network gateway size</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>The way you're charged for your ExpressRoute usage varies between the three different SKU types. With Local SKU, you're automatically charged with an Unlimited data plan. With Standard and Premium SKU, you can select between a Metered or an Unlimited data plan. All ingress data are free of charge except when using the Global Reach add-on. It's important to understand which SKU types and data plan works best for your workload to best optimize cost and budget. For more information resizing ExpressRoute circuit, see upgrading ExpressRoute circuit bandwidth.</t>
+          <t>ExpressRoute virtual network gateways are used to pass traffic into a virtual network over private peering. Review the performance and scale needs of your preferred Virtual Network Gateway SKU. Select the appropriate gateway SKU on your on-premises to Azure workload.</t>
         </is>
       </c>
       <c r="E21" s="21" t="n"/>
@@ -1524,7 +1524,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>18ef72cd-862c-43e8-b9ee-921fb5f079f0</t>
+          <t>3655e3bc-9d56-47f6-b7bc-c1a568aa3c8a</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1537,12 +1537,12 @@
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Determine the ExpressRoute virtual network gateway size</t>
+          <t>Monitor cost and create budget alerts</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute virtual network gateways are used to pass traffic into a virtual network over private peering. Review the performance and scale needs of your preferred Virtual Network Gateway SKU. Select the appropriate gateway SKU on your on-premises to Azure workload.</t>
+          <t>Monitor the cost of your ExpressRoute circuit and create alerts for spending anomalies and overspending risks. For more information, see Monitoring ExpressRoute costs.</t>
         </is>
       </c>
       <c r="E22" s="21" t="n"/>
@@ -1558,7 +1558,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>3655e3bc-9d56-47f6-b7bc-c1a568aa3c8a</t>
+          <t>3ade6188-d99d-47de-99e7-639136d3ac36</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1571,12 +1571,12 @@
       <c r="B23" s="21" t="n"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Monitor cost and create budget alerts</t>
+          <t>Deprovision and delete ExpressRoute circuits no longer in use.</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>Monitor the cost of your ExpressRoute circuit and create alerts for spending anomalies and overspending risks. For more information, see Monitoring ExpressRoute costs.</t>
+          <t>ExpressRoute circuits are charged from the moment they're created. To reduce unnecessary cost, deprovision the circuit with the service provider and delete the ExpressRoute circuit from your subscription. For steps on how to remove an ExpressRoute circuit, see Deprovisioning an ExpressRoute circuit.</t>
         </is>
       </c>
       <c r="E23" s="21" t="n"/>
@@ -1592,7 +1592,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>3ade6188-d99d-47de-99e7-639136d3ac36</t>
+          <t>ca8f1e36-5762-4510-b0af-5a073cc9185a</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1605,12 +1605,12 @@
       <c r="B24" s="21" t="n"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Deprovision and delete ExpressRoute circuits no longer in use.</t>
+          <t>Configure connection monitoring</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute circuits are charged from the moment they're created. To reduce unnecessary cost, deprovision the circuit with the service provider and delete the ExpressRoute circuit from your subscription. For steps on how to remove an ExpressRoute circuit, see Deprovisioning an ExpressRoute circuit.</t>
+          <t>Connection monitoring allows you to monitor connectivity between your on-premises resources and Azure over the ExpressRoute private peering and Microsoft peering connection. Connection monitor can detect networking issues by identifying where along the network path the problem is and help you quickly resolve configuration or hardware failures.</t>
         </is>
       </c>
       <c r="E24" s="21" t="n"/>
@@ -1626,7 +1626,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>ca8f1e36-5762-4510-b0af-5a073cc9185a</t>
+          <t>c1dcf762-0191-4963-89d7-3cc1df34b653</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1639,12 +1639,12 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Configure connection monitoring</t>
+          <t>Configure Service Health</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>Connection monitoring allows you to monitor connectivity between your on-premises resources and Azure over the ExpressRoute private peering and Microsoft peering connection. Connection monitor can detect networking issues by identifying where along the network path the problem is and help you quickly resolve configuration or hardware failures.</t>
+          <t>Set up Service Health notifications to alert when planned and upcoming maintenance is happening to all ExpressRoute circuits in your subscription. Service Health also displays past maintenance along with RCA if an unplanned maintenance were to occur.</t>
         </is>
       </c>
       <c r="E25" s="21" t="n"/>
@@ -1660,7 +1660,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>c1dcf762-0191-4963-89d7-3cc1df34b653</t>
+          <t>60f840b9-1818-4967-a115-68e90f47daf3</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1673,12 +1673,12 @@
       <c r="B26" s="21" t="n"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Configure Service Health</t>
+          <t>Review metrics with Network Insights</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>Set up Service Health notifications to alert when planned and upcoming maintenance is happening to all ExpressRoute circuits in your subscription. Service Health also displays past maintenance along with RCA if an unplanned maintenance were to occur.</t>
+          <t>ExpressRoute Insights with Network Insights allow you to review and analyze ExpressRoute circuits, gateways, connections metrics and health dashboards. ExpressRoute Insights also provide a topology view of your ExpressRoute connections where you can view details of your peering components all in a single place.Metrics available:- Availability- Throughput- Gateway metrics</t>
         </is>
       </c>
       <c r="E26" s="21" t="n"/>
@@ -1694,7 +1694,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>60f840b9-1818-4967-a115-68e90f47daf3</t>
+          <t>c3c5fe66-1901-4786-99ea-845944bd6ca3</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1707,12 +1707,12 @@
       <c r="B27" s="21" t="n"/>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Review metrics with Network Insights</t>
+          <t>Review ExpressRoute resource metrics</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Insights with Network Insights allow you to review and analyze ExpressRoute circuits, gateways, connections metrics and health dashboards. ExpressRoute Insights also provide a topology view of your ExpressRoute connections where you can view details of your peering components all in a single place.Metrics available:- Availability- Throughput- Gateway metrics</t>
+          <t>ExpressRoute uses Azure Monitor to collect metrics and create alerts base on your configuration. Metrics are collected for ExpressRoute circuits, ExpressRoute gateways, ExpressRoute gateway connections, and ExpressRoute Direct. These metrics are useful for diagnosing connectivity problems and understanding the performance of your ExpressRoute connection.</t>
         </is>
       </c>
       <c r="E27" s="21" t="n"/>
@@ -1727,7 +1727,7 @@
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>c3c5fe66-1901-4786-99ea-845944bd6ca3</t>
+          <t>03914313-6287-41c4-9e4a-4980c2ee3aa9</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1740,12 +1740,12 @@
       <c r="B28" s="21" t="n"/>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Review ExpressRoute resource metrics</t>
+          <t>Test ExpressRoute gateway performance to meet work load requirements.</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute uses Azure Monitor to collect metrics and create alerts base on your configuration. Metrics are collected for ExpressRoute circuits, ExpressRoute gateways, ExpressRoute gateway connections, and ExpressRoute Direct. These metrics are useful for diagnosing connectivity problems and understanding the performance of your ExpressRoute connection.</t>
+          <t>Use Azure Connectivity Toolkit to test performance across your ExpressRoute circuit to understand bandwidth capacity and latency of your network connection.</t>
         </is>
       </c>
       <c r="E28" s="21" t="n"/>
@@ -1760,7 +1760,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>03914313-6287-41c4-9e4a-4980c2ee3aa9</t>
+          <t>07fac8bb-13c5-44b8-a4e8-7e2ed1a84b48</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -1773,12 +1773,12 @@
       <c r="B29" s="21" t="n"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Test ExpressRoute gateway performance to meet work load requirements.</t>
+          <t>Increase the size of the ExpressRoute gateway.</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Connectivity Toolkit to test performance across your ExpressRoute circuit to understand bandwidth capacity and latency of your network connection.</t>
+          <t>Upgrade to a higher gateway SKU for improved throughput performance between on-premises and Azure environment.</t>
         </is>
       </c>
       <c r="E29" s="21" t="n"/>
@@ -1793,7 +1793,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>07fac8bb-13c5-44b8-a4e8-7e2ed1a84b48</t>
+          <t>7f788e1a-71dd-4a3e-b19f-6bd8ef8ad815</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -1806,12 +1806,12 @@
       <c r="B30" s="21" t="n"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Increase the size of the ExpressRoute gateway.</t>
+          <t>Upgrade ExpressRoute circuit bandwidth</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>Upgrade to a higher gateway SKU for improved throughput performance between on-premises and Azure environment.</t>
+          <t>Upgrade your circuit bandwidth to meet your work load requirements. Circuit bandwidth is shared between all virtual networks connected to the ExpressRoute circuit. Depending on your work load, one or more virtual networks can use up all the bandwidth on the circuit.</t>
         </is>
       </c>
       <c r="E30" s="21" t="n"/>
@@ -1826,7 +1826,7 @@
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>7f788e1a-71dd-4a3e-b19f-6bd8ef8ad815</t>
+          <t>5cd4120c-3a0b-42d0-8114-2663988f43b8</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -1839,12 +1839,12 @@
       <c r="B31" s="21" t="n"/>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Upgrade ExpressRoute circuit bandwidth</t>
+          <t>Enable ExpressRoute FastPath for higher throughput</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>Upgrade your circuit bandwidth to meet your work load requirements. Circuit bandwidth is shared between all virtual networks connected to the ExpressRoute circuit. Depending on your work load, one or more virtual networks can use up all the bandwidth on the circuit.</t>
+          <t>If you're using an Ultra performance or an ErGW3AZ virtual network gateway, you can enable FastPath to improve the data path performance between your on-premises network and Azure virtual network.</t>
         </is>
       </c>
       <c r="E31" s="21" t="n"/>
@@ -1859,7 +1859,7 @@
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>5cd4120c-3a0b-42d0-8114-2663988f43b8</t>
+          <t>ef778b99-5006-4adf-bef1-d709456a4c51</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -1872,12 +1872,12 @@
       <c r="B32" s="21" t="n"/>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Enable ExpressRoute FastPath for higher throughput</t>
+          <t>Monitor ExpressRoute circuit and gateway metrics</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>If you're using an Ultra performance or an ErGW3AZ virtual network gateway, you can enable FastPath to improve the data path performance between your on-premises network and Azure virtual network.</t>
+          <t>Set up alerts base on ExpressRoute metrics to proactively notify you when a certain threshold is met. These metrics are useful to understand anomalies that can happen with your ExpressRoute connection such as outages and maintenance happening to your ExpressRoute circuits.</t>
         </is>
       </c>
       <c r="E32" s="21" t="n"/>
@@ -1893,7 +1893,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>ef778b99-5006-4adf-bef1-d709456a4c51</t>
+          <t>4a0e8302-106d-48a3-abc4-9e4875a48309</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -1904,32 +1904,15 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="n"/>
       <c r="B33" s="21" t="n"/>
-      <c r="C33" s="21" t="inlineStr">
-        <is>
-          <t>Monitor ExpressRoute circuit and gateway metrics</t>
-        </is>
-      </c>
-      <c r="D33" s="21" t="inlineStr">
-        <is>
-          <t>Set up alerts base on ExpressRoute metrics to proactively notify you when a certain threshold is met. These metrics are useful to understand anomalies that can happen with your ExpressRoute connection such as outages and maintenance happening to your ExpressRoute circuits.</t>
-        </is>
-      </c>
+      <c r="C33" s="21" t="n"/>
+      <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="n"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="n"/>
       <c r="I33" s="15" t="n"/>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
-      <c r="L33" s="25" t="inlineStr">
-        <is>
-          <t>4a0e8302-106d-48a3-abc4-9e4875a48309</t>
-        </is>
-      </c>
+      <c r="L33" s="25" t="n"/>
       <c r="M33" s="25" t="n"/>
       <c r="N33" s="25" t="n"/>
       <c r="O33" s="25" t="n"/>
@@ -6249,7 +6232,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F34" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F33" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/azureexpressroute_sg_checklist.en.xlsx
+++ b/spreadsheet/macrofree/azureexpressroute_sg_checklist.en.xlsx
@@ -1134,7 +1134,7 @@
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute dedicated circuits guarantee `99.95%` availability when an active-active connectivity is configured between on-premises and Azure. This mode provides higher availability of your Expressroute connection. It's also recommended to configure BFD for faster failover if there's a link failure on a connection.</t>
+          <t>This mode provides higher availability of your Expressroute connections. It's also recommended to configure BFD for faster failover if there's a link failure on a connection.</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>Create availability zone aware Virtual Network Gateway for higher resiliency and plan for Virtual Network Gateways in different region for disaster recovery and high availability.</t>
+          <t>Create availability zone aware Virtual Network Gateway for higher resiliency and plan for Virtual Network Gateways in different regions for resiliency, disaster recovery, and high availability.</t>
         </is>
       </c>
       <c r="E11" s="21" t="n"/>
